--- a/2.3.Categorical-variables.Visualization-techniques-exercise.xlsx
+++ b/2.3.Categorical-variables.Visualization-techniques-exercise.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEFD812-6860-4BFE-9896-6FEDB97CD28D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E420BDC3-F096-064A-8E65-B9653F2501F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="16280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequency distribution table" sheetId="4" r:id="rId1"/>
@@ -13,17 +13,28 @@
     <sheet name="Pie chart" sheetId="7" r:id="rId3"/>
     <sheet name="Pareto diagram" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
   <si>
     <t>Graphs and tables for categorical variables</t>
   </si>
@@ -158,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -169,19 +180,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1491,6 +1499,731 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Market share in Bonn</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-57FE-FB4E-B4F5-D451C248A864}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF5353"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-57FE-FB4E-B4F5-D451C248A864}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-57FE-FB4E-B4F5-D451C248A864}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pie chart'!$B$5:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Audi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BMW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mercedes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pie chart'!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-57FE-FB4E-B4F5-D451C248A864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9407518913077045E-2"/>
+          <c:y val="4.665892691815951E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar chart'!$B$5:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Audi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BMW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mercedes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar chart'!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E198-2747-8319-822741918637}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="379377088"/>
+        <c:axId val="379373480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="379377088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379373480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="379373480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379377088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1611,6 +2344,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2634,6 +3447,1028 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3262,6 +5097,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>460003</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137165</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B0E035-D2C0-D14F-86BA-CE01E408184F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603552</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90366</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DFF8141-1C41-F348-90D7-EE5E0D36723F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3528,183 +5439,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="3" width="10.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>124</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="6">
+        <f>C5/$C$8</f>
+        <v>0.37014925373134328</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>98</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="6">
+        <f>C6/$C$8</f>
+        <v>0.29253731343283584</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>113</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="6">
+        <f>C7/$C$8</f>
+        <v>0.33731343283582088</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f>SUM(C5:C7)</f>
         <v>335</v>
       </c>
+      <c r="D8" s="14">
+        <f>SUM(D5:D7)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+    <row r="9" spans="2:4" ht="13" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="D15" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="D16" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="D17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3714,151 +5547,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="3" width="10.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>124</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="6">
+        <f>C5/$C$8</f>
+        <v>0.37014925373134328</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>98</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="6">
+        <f>C6/$C$8</f>
+        <v>0.29253731343283584</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>113</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="6">
+        <f>C7/$C$8</f>
+        <v>0.33731343283582088</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f>SUM(C5:C7)</f>
         <v>335</v>
       </c>
+      <c r="D8" s="14">
+        <f>SUM(D5:D7)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+    <row r="9" spans="2:4" ht="13" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="D15" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="D16" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="D17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,29 +5655,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="3" width="10.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
@@ -3899,8 +5688,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
@@ -3911,8 +5700,8 @@
         <v>0.37014925373134328</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
@@ -3923,8 +5712,8 @@
         <v>0.29253731343283584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
@@ -3935,99 +5724,36 @@
         <v>0.33731343283582088</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f>SUM(C5:C7)</f>
         <v>335</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <f>SUM(D5:D7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+    <row r="9" spans="2:4" ht="13" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="D14" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="D15" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4040,28 +5766,28 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="18.21875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="3" width="10.1640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="18.1640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
@@ -4070,8 +5796,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
@@ -4082,20 +5808,20 @@
         <v>0.37014925373134328</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="3">
         <v>98</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <f>C6/SUM($C$5:$C$7)</f>
         <v>0.29253731343283584</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
@@ -4106,21 +5832,21 @@
         <v>0.33731343283582088</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f>SUM(C5:C7)</f>
         <v>335</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <f>SUM(D5:D7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="13" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
@@ -4134,14 +5860,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>124</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="16">
         <f>VLOOKUP(B15,$B$5:$D$7,3)</f>
         <v>0.37014925373134328</v>
       </c>
@@ -4150,30 +5876,30 @@
         <v>0.37014925373134328</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="3">
         <v>113</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="16">
         <f t="shared" ref="D16:D17" si="0">VLOOKUP(B16,$B$5:$D$7,3)</f>
         <v>0.33731343283582088</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="6">
         <f>E15+D16</f>
         <v>0.70746268656716416</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>98</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>0.29253731343283584</v>
       </c>
